--- a/record/Six_weights.xlsx
+++ b/record/Six_weights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>wg_q1</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -67,11 +67,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -81,6 +85,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -102,28 +110,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>-36050.862774999347</v>
+        <v>-1535769.3891659975</v>
       </c>
       <c r="B2">
         <v>0.033333333333333333</v>
@@ -132,7 +140,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>-1463.0071356932167</v>
+        <v>230044.75397908688</v>
       </c>
       <c r="E2">
         <v>0.033333333333333333</v>
@@ -143,7 +151,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>-217632.82958308235</v>
+        <v>-7378959.5555505753</v>
       </c>
       <c r="B3">
         <v>0.066666666666666666</v>
@@ -152,7 +160,7 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>-7508.8071125950664</v>
+        <v>1103648.3005566597</v>
       </c>
       <c r="E3">
         <v>0.066666666666666666</v>
@@ -163,7 +171,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>-887653.99381321669</v>
+        <v>-22293769.866167068</v>
       </c>
       <c r="B4">
         <v>0.10000000000000001</v>
@@ -172,7 +180,7 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>-22445.27245888114</v>
+        <v>3325658.1758537292</v>
       </c>
       <c r="E4">
         <v>0.10000000000000001</v>
@@ -183,7 +191,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>-2244272.6023065448</v>
+        <v>-35348558.433795929</v>
       </c>
       <c r="B5">
         <v>0.13333333333333333</v>
@@ -192,7 +200,7 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>-20460.881558790803</v>
+        <v>5240380.8852767944</v>
       </c>
       <c r="E5">
         <v>0.13333333333333333</v>
@@ -203,7 +211,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>-2838495.920854032</v>
+        <v>-10869797.867807388</v>
       </c>
       <c r="B6">
         <v>0.16666666666666666</v>
@@ -212,7 +220,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>86716.924948081374</v>
+        <v>1524153.590716362</v>
       </c>
       <c r="E6">
         <v>0.16666666666666666</v>
@@ -223,7 +231,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>-253829.14857258648</v>
+        <v>29500712.58266449</v>
       </c>
       <c r="B7">
         <v>0.20000000000000001</v>
@@ -232,7 +240,7 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>257048.22273495758</v>
+        <v>-4468778.1024608612</v>
       </c>
       <c r="E7">
         <v>0.20000000000000001</v>
@@ -243,7 +251,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>2034052.8361501396</v>
+        <v>-6509025.7378768921</v>
       </c>
       <c r="B8">
         <v>0.23333333333333334</v>
@@ -252,7 +260,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>93686.527994081378</v>
+        <v>1051732.2999048233</v>
       </c>
       <c r="E8">
         <v>0.23333333333333334</v>
@@ -263,7 +271,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>-1043325.8637532145</v>
+        <v>-19918753.456754684</v>
       </c>
       <c r="B9">
         <v>0.26666666666666666</v>
@@ -272,7 +280,7 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>-241640.00617932528</v>
+        <v>2974327.8189868927</v>
       </c>
       <c r="E9">
         <v>0.26666666666666666</v>
@@ -283,7 +291,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>-634437.62130641937</v>
+        <v>31778185.660045624</v>
       </c>
       <c r="B10">
         <v>0.29999999999999999</v>
@@ -292,7 +300,7 @@
         <v>100</v>
       </c>
       <c r="D10">
-        <v>99834.836408823729</v>
+        <v>-4815843.3299732208</v>
       </c>
       <c r="E10">
         <v>0.29999999999999999</v>
@@ -303,7 +311,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1689233.951867342</v>
+        <v>-31207608.253292084</v>
       </c>
       <c r="B11">
         <v>0.33333333333333331</v>
@@ -312,7 +320,7 @@
         <v>100</v>
       </c>
       <c r="D11">
-        <v>105512.83344432712</v>
+        <v>4759025.747379303</v>
       </c>
       <c r="E11">
         <v>0.33333333333333331</v>
@@ -323,7 +331,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>-1968023.1018324196</v>
+        <v>25067781.584144592</v>
       </c>
       <c r="B12">
         <v>0.36666666666666664</v>
@@ -332,7 +340,7 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>-238218.87270987034</v>
+        <v>-3838533.9883060455</v>
       </c>
       <c r="E12">
         <v>0.36666666666666664</v>
@@ -343,7 +351,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1775236.0456306934</v>
+        <v>-18076136.67779541</v>
       </c>
       <c r="B13">
         <v>0.40000000000000002</v>
@@ -352,7 +360,7 @@
         <v>100</v>
       </c>
       <c r="D13">
-        <v>278938.72111229599</v>
+        <v>2776891.1700801849</v>
       </c>
       <c r="E13">
         <v>0.40000000000000002</v>
@@ -363,7 +371,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>-1407928.6455532238</v>
+        <v>12244554.947739601</v>
       </c>
       <c r="B14">
         <v>0.43333333333333335</v>
@@ -372,7 +380,7 @@
         <v>100</v>
       </c>
       <c r="D14">
-        <v>-259580.46369819343</v>
+        <v>-1886335.2190647125</v>
       </c>
       <c r="E14">
         <v>0.43333333333333335</v>
@@ -383,7 +391,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>1035898.5441444069</v>
+        <v>-7996371.1243534088</v>
       </c>
       <c r="B15">
         <v>0.46666666666666667</v>
@@ -392,7 +400,7 @@
         <v>100</v>
       </c>
       <c r="D15">
-        <v>214452.21440367401</v>
+        <v>1235110.4070105553</v>
       </c>
       <c r="E15">
         <v>0.46666666666666667</v>
@@ -403,7 +411,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>-727407.34797412157</v>
+        <v>5114541.1020059586</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -412,7 +420,7 @@
         <v>100</v>
       </c>
       <c r="D16">
-        <v>-165038.06338355783</v>
+        <v>-792034.15375041962</v>
       </c>
       <c r="E16">
         <v>0.5</v>
@@ -423,7 +431,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>495500.63165897131</v>
+        <v>-3235174.6258106232</v>
       </c>
       <c r="B17">
         <v>0.53333333333333333</v>
@@ -432,7 +440,7 @@
         <v>100</v>
       </c>
       <c r="D17">
-        <v>121409.60424504094</v>
+        <v>502346.34396100044</v>
       </c>
       <c r="E17">
         <v>0.53333333333333333</v>
@@ -443,7 +451,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>-330376.9649373889</v>
+        <v>2035189.7157441378</v>
       </c>
       <c r="B18">
         <v>0.56666666666666665</v>
@@ -452,7 +460,7 @@
         <v>100</v>
       </c>
       <c r="D18">
-        <v>-86691.387514851987</v>
+        <v>-316946.67605608702</v>
       </c>
       <c r="E18">
         <v>0.56666666666666665</v>
@@ -463,7 +471,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>216503.44678197801</v>
+        <v>-1276536.2643205523</v>
       </c>
       <c r="B19">
         <v>0.59999999999999998</v>
@@ -472,7 +480,7 @@
         <v>100</v>
       </c>
       <c r="D19">
-        <v>60553.770438231528</v>
+        <v>199455.56244295835</v>
       </c>
       <c r="E19">
         <v>0.59999999999999998</v>
@@ -483,7 +491,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>-139542.24140170962</v>
+        <v>798417.30582952499</v>
       </c>
       <c r="B20">
         <v>0.6333333333333333</v>
@@ -492,7 +500,7 @@
         <v>100</v>
       </c>
       <c r="D20">
-        <v>-41550.066938857548</v>
+        <v>-125242.33183789253</v>
       </c>
       <c r="E20">
         <v>0.6333333333333333</v>
@@ -503,7 +511,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>88165.899486254901</v>
+        <v>-496951.03177668154</v>
       </c>
       <c r="B21">
         <v>0.66666666666666663</v>
@@ -512,7 +520,7 @@
         <v>100</v>
       </c>
       <c r="D21">
-        <v>28024.742199174128</v>
+        <v>78322.622209817171</v>
       </c>
       <c r="E21">
         <v>0.66666666666666663</v>
@@ -523,7 +531,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>-54241.92507397756</v>
+        <v>306488.35583207011</v>
       </c>
       <c r="B22">
         <v>0.69999999999999996</v>
@@ -532,7 +540,7 @@
         <v>100</v>
       </c>
       <c r="D22">
-        <v>-18526.040171443019</v>
+        <v>-48597.567481815815</v>
       </c>
       <c r="E22">
         <v>0.69999999999999996</v>
@@ -543,7 +551,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>32127.792248811573</v>
+        <v>-186073.51706989855</v>
       </c>
       <c r="B23">
         <v>0.73333333333333328</v>
@@ -552,7 +560,7 @@
         <v>100</v>
       </c>
       <c r="D23">
-        <v>11946.412791634444</v>
+        <v>29738.032501898706</v>
       </c>
       <c r="E23">
         <v>0.73333333333333328</v>
@@ -563,7 +571,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>-17946.831268807873</v>
+        <v>110149.90819135681</v>
       </c>
       <c r="B24">
         <v>0.76666666666666661</v>
@@ -572,7 +580,7 @@
         <v>100</v>
       </c>
       <c r="D24">
-        <v>-7448.5288190015126</v>
+        <v>-17796.153473969549</v>
       </c>
       <c r="E24">
         <v>0.76666666666666661</v>
@@ -583,7 +591,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>9147.3966921009123</v>
+        <v>-62704.698045043275</v>
       </c>
       <c r="B25">
         <v>0.80000000000000004</v>
@@ -592,7 +600,7 @@
         <v>100</v>
       </c>
       <c r="D25">
-        <v>4423.3530242488487</v>
+        <v>10288.632843207568</v>
       </c>
       <c r="E25">
         <v>0.80000000000000004</v>
@@ -603,7 +611,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>-3949.4480855725706</v>
+        <v>33674.701042941771</v>
       </c>
       <c r="B26">
         <v>0.83333333333333337</v>
@@ -612,7 +620,7 @@
         <v>100</v>
       </c>
       <c r="D26">
-        <v>-2467.1303959240904</v>
+        <v>-5661.6640412216075</v>
       </c>
       <c r="E26">
         <v>0.83333333333333337</v>
@@ -623,7 +631,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>1149.6154707709793</v>
+        <v>-16540.259799445048</v>
       </c>
       <c r="B27">
         <v>0.8666666666666667</v>
@@ -632,7 +640,7 @@
         <v>100</v>
       </c>
       <c r="D27">
-        <v>1235.2248844547721</v>
+        <v>2888.1996182283619</v>
       </c>
       <c r="E27">
         <v>0.8666666666666667</v>
@@ -643,7 +651,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>98.757988255936652</v>
+        <v>7064.3499499801546</v>
       </c>
       <c r="B28">
         <v>0.90000000000000002</v>
@@ -652,7 +660,7 @@
         <v>100</v>
       </c>
       <c r="D28">
-        <v>-543.29697410004155</v>
+        <v>-1334.2863309587701</v>
       </c>
       <c r="E28">
         <v>0.90000000000000002</v>
@@ -663,7 +671,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>-445.11306160624372</v>
+        <v>-2375.7923905237985</v>
       </c>
       <c r="B29">
         <v>0.93333333333333335</v>
@@ -672,7 +680,7 @@
         <v>100</v>
       </c>
       <c r="D29">
-        <v>177.35650144275132</v>
+        <v>518.8252436217299</v>
       </c>
       <c r="E29">
         <v>0.93333333333333335</v>
@@ -683,7 +691,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>335.3338140090782</v>
+        <v>456.18089384617269</v>
       </c>
       <c r="B30">
         <v>0.96666666666666667</v>
@@ -692,7 +700,7 @@
         <v>100</v>
       </c>
       <c r="D30">
-        <v>-42.879092391509403</v>
+        <v>-168.96482980412475</v>
       </c>
       <c r="E30">
         <v>0.96666666666666667</v>
@@ -703,7 +711,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>-120.98411146394028</v>
+        <v>18.244873392583827</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -712,7 +720,7 @@
         <v>100</v>
       </c>
       <c r="D31">
-        <v>4.1615182952684791</v>
+        <v>29.562225961445165</v>
       </c>
       <c r="E31">
         <v>1</v>

--- a/record/Six_weights.xlsx
+++ b/record/Six_weights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
   <si>
     <t>wg_q1</t>
   </si>
@@ -51,7 +51,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -71,11 +71,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -89,6 +91,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,22 +114,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
